--- a/MatProg/Lab6/Lab6.xlsx
+++ b/MatProg/Lab6/Lab6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Labs\semester_5\MatProg\Lab6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB8B467-591F-4C0F-9760-9A09B17268FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B389E8-D0E2-4108-824A-7551DE5A70B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Задание 1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="55">
   <si>
     <t>Номер отсчета</t>
   </si>
@@ -220,6 +220,9 @@
   </si>
   <si>
     <t>fi*qi0</t>
+  </si>
+  <si>
+    <t>Ki*Vi</t>
   </si>
 </sst>
 </file>
@@ -585,16 +588,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U58"/>
   <sheetViews>
-    <sheetView topLeftCell="H34" workbookViewId="0">
-      <selection activeCell="K71" sqref="K71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -651,7 +654,7 @@
       </c>
       <c r="U1" s="6"/>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -722,7 +725,7 @@
       <c r="T2" s="6"/>
       <c r="U2" s="6"/>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -793,7 +796,7 @@
       <c r="T3" s="6"/>
       <c r="U3" s="6"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
@@ -853,7 +856,7 @@
       </c>
       <c r="U5" s="6"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
@@ -928,7 +931,7 @@
       <c r="T6" s="6"/>
       <c r="U6" s="6"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>2</v>
       </c>
@@ -1003,7 +1006,7 @@
       <c r="T7" s="6"/>
       <c r="U7" s="6"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1033,7 +1036,7 @@
       </c>
       <c r="K9" s="6"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -1059,7 +1062,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="6"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1094,7 +1097,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -1129,7 +1132,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1164,7 +1167,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -1199,7 +1202,7 @@
       <c r="J14" s="6"/>
       <c r="K14" s="6"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>5</v>
       </c>
@@ -1234,7 +1237,7 @@
       <c r="J15" s="6"/>
       <c r="K15" s="6"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>6</v>
       </c>
@@ -1269,7 +1272,7 @@
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>7</v>
       </c>
@@ -1304,7 +1307,7 @@
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>8</v>
       </c>
@@ -1339,11 +1342,11 @@
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="S19" s="4"/>
       <c r="T19" s="4"/>
     </row>
-    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>5</v>
       </c>
@@ -1385,7 +1388,7 @@
       </c>
       <c r="U20" s="6"/>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>0</v>
       </c>
@@ -1417,7 +1420,8 @@
         <v>8</v>
       </c>
       <c r="L21" s="1">
-        <v>0.2</v>
+        <f>($K$21-$J$21)/$R$39</f>
+        <v>3.0959752321981426E-3</v>
       </c>
       <c r="M21" s="1">
         <v>16</v>
@@ -1425,21 +1429,21 @@
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1</v>
       </c>
       <c r="B22">
         <f>G21+(INDEX($A$39:$Q$39,$M$21-A22-1+1)/INDEX($A$39:$Q$39,$M$21-A22+1+1))*(H21-G21)-(POWER(-1,$M$21-A22+1)/INDEX($A$39:$Q$39,$M$21-A22+1+1))*$L$21</f>
-        <v>3.0556042579837195</v>
+        <v>3.0557275541795663</v>
       </c>
       <c r="C22">
         <f>G21+(INDEX($A$39:$Q$39,$M$21-A22+1)/INDEX($A$39:$Q$39,$M$21-A22+1+1))*(H21-G21)+(POWER(-1,$M$21-A22+1)/INDEX($A$39:$Q$39,$M$21-A22+1+1))*$L$21</f>
-        <v>4.9443957420162805</v>
+        <v>4.9442724458204328</v>
       </c>
       <c r="D22" s="1">
         <f>POWER(B22,2)-7*B22+6</f>
-        <v>-6.0525124244777988</v>
+        <v>-6.0526219938847312</v>
       </c>
       <c r="E22" s="1" t="str">
         <f>IF(D22&lt;=F22,"&lt;=","&gt;")</f>
@@ -1447,7 +1451,7 @@
       </c>
       <c r="F22" s="1">
         <f>POWER(C22,2)-7*C22+6</f>
-        <v>-4.1637209404452342</v>
+        <v>-4.1640771022438656</v>
       </c>
       <c r="G22" s="1">
         <f>IF(D22&lt;=F22,G21,B22)</f>
@@ -1455,26 +1459,26 @@
       </c>
       <c r="H22" s="1">
         <f>IF(D22&lt;=F22,C22,H21)</f>
-        <v>4.9443957420162805</v>
+        <v>4.9442724458204328</v>
       </c>
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>2</v>
       </c>
       <c r="B23">
         <f>IF(D22&lt;=F22,G22+(INDEX($A$39:$Q$39,$M$21-A23-1+1)/INDEX($A$39:$Q$39,$M$21-A23+1+1))*(H22-G22)-(POWER(-1,$M$21-A23+1)/INDEX($A$39:$Q$39,$M$21-A23+1+1))*$L$21,C22)</f>
-        <v>1.888791484032561</v>
+        <v>1.8885448916408667</v>
       </c>
       <c r="C23">
         <f>IF(D22&lt;=F22,B22,G22+(INDEX($A$39:$Q$39,$M$21-A23+1)/INDEX($A$39:$Q$39,$M$21-A23+1+1))*(H22-G22)+(POWER(-1,$M$21-A23+1)/INDEX($A$39:$Q$39,$M$21-A23+1+1))*$L$21)</f>
-        <v>3.0556042579837195</v>
+        <v>3.0557275541795663</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" ref="D23:D36" si="11">POWER(B23,2)-7*B23+6</f>
-        <v>-3.6540071180740021</v>
+        <v>-3.6532124337432528</v>
       </c>
       <c r="E23" s="1" t="str">
         <f t="shared" ref="E23:E36" si="12">IF(D23&lt;=F23,"&lt;=","&gt;")</f>
@@ -1482,34 +1486,34 @@
       </c>
       <c r="F23" s="1">
         <f t="shared" ref="F23:F36" si="13">POWER(C23,2)-7*C23+6</f>
-        <v>-6.0525124244777988</v>
+        <v>-6.0526219938847312</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" ref="G23:G36" si="14">IF(D23&lt;=F23,G22,B23)</f>
-        <v>1.888791484032561</v>
+        <v>1.8885448916408667</v>
       </c>
       <c r="H23" s="1">
         <f t="shared" ref="H23:H36" si="15">IF(D23&lt;=F23,C23,H22)</f>
-        <v>4.9443957420162805</v>
+        <v>4.9442724458204328</v>
       </c>
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>3</v>
       </c>
       <c r="B24">
         <f t="shared" ref="B24:B36" si="16">IF(D23&lt;=F23,G23+(INDEX($A$39:$Q$39,$M$21-A24-1+1)/INDEX($A$39:$Q$39,$M$21-A24+1+1))*(H23-G23)-(POWER(-1,$M$21-A24+1)/INDEX($A$39:$Q$39,$M$21-A24+1+1))*$L$21,C23)</f>
-        <v>3.0556042579837195</v>
+        <v>3.0557275541795663</v>
       </c>
       <c r="C24">
         <f t="shared" ref="C24:C36" si="17">IF(D23&lt;=F23,B23,G23+(INDEX($A$39:$Q$39,$M$21-A24+1)/INDEX($A$39:$Q$39,$M$21-A24+1+1))*(H23-G23)+(POWER(-1,$M$21-A24+1)/INDEX($A$39:$Q$39,$M$21-A24+1+1))*$L$21)</f>
-        <v>3.7775829680651221</v>
+        <v>3.7770897832817338</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="11"/>
-        <v>-6.0525124244777988</v>
+        <v>-6.0526219938847312</v>
       </c>
       <c r="E24" s="1" t="str">
         <f t="shared" si="12"/>
@@ -1517,34 +1521,34 @@
       </c>
       <c r="F24" s="1">
         <f t="shared" si="13"/>
-        <v>-6.1729476958401577</v>
+        <v>-6.1732212520008805</v>
       </c>
       <c r="G24" s="1">
         <f t="shared" si="14"/>
-        <v>3.0556042579837195</v>
+        <v>3.0557275541795663</v>
       </c>
       <c r="H24" s="1">
         <f t="shared" si="15"/>
-        <v>4.9443957420162805</v>
+        <v>4.9442724458204328</v>
       </c>
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>4</v>
       </c>
       <c r="B25">
         <f t="shared" si="16"/>
-        <v>3.7775829680651221</v>
+        <v>3.7770897832817338</v>
       </c>
       <c r="C25">
         <f t="shared" si="17"/>
-        <v>4.2224170319348779</v>
+        <v>4.2229102167182653</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="11"/>
-        <v>-6.1729476958401577</v>
+        <v>-6.1732212520008805</v>
       </c>
       <c r="E25" s="1" t="str">
         <f t="shared" si="12"/>
@@ -1552,34 +1556,34 @@
       </c>
       <c r="F25" s="1">
         <f t="shared" si="13"/>
-        <v>-5.7281136319704018</v>
+        <v>-5.7274008185643517</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="14"/>
-        <v>3.0556042579837195</v>
+        <v>3.0557275541795663</v>
       </c>
       <c r="H25" s="1">
         <f t="shared" si="15"/>
-        <v>4.2224170319348779</v>
+        <v>4.2229102167182653</v>
       </c>
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>5</v>
       </c>
       <c r="B26">
         <f t="shared" si="16"/>
-        <v>3.5004383218534754</v>
+        <v>3.5015479876160986</v>
       </c>
       <c r="C26">
         <f t="shared" si="17"/>
-        <v>3.7775829680651221</v>
+        <v>3.7770897832817338</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="11"/>
-        <v>-6.2499998078739516</v>
+        <v>-6.2499976037343394</v>
       </c>
       <c r="E26" s="1" t="str">
         <f t="shared" si="12"/>
@@ -1587,34 +1591,34 @@
       </c>
       <c r="F26" s="1">
         <f t="shared" si="13"/>
-        <v>-6.1729476958401577</v>
+        <v>-6.1732212520008805</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="14"/>
-        <v>3.0556042579837195</v>
+        <v>3.0557275541795663</v>
       </c>
       <c r="H26" s="1">
         <f t="shared" si="15"/>
-        <v>3.7775829680651221</v>
+        <v>3.7770897832817338</v>
       </c>
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>6</v>
       </c>
       <c r="B27">
         <f t="shared" si="16"/>
-        <v>3.3327489041953666</v>
+        <v>3.3312693498452011</v>
       </c>
       <c r="C27">
         <f t="shared" si="17"/>
-        <v>3.5004383218534754</v>
+        <v>3.5015479876160986</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="11"/>
-        <v>-6.2220270709521497</v>
+        <v>-6.2215299676983395</v>
       </c>
       <c r="E27" s="1" t="str">
         <f t="shared" si="12"/>
@@ -1622,34 +1626,34 @@
       </c>
       <c r="F27" s="1">
         <f t="shared" si="13"/>
-        <v>-6.2499998078739516</v>
+        <v>-6.2499976037343394</v>
       </c>
       <c r="G27" s="1">
         <f t="shared" si="14"/>
-        <v>3.3327489041953666</v>
+        <v>3.3312693498452011</v>
       </c>
       <c r="H27" s="1">
         <f t="shared" si="15"/>
-        <v>3.7775829680651221</v>
+        <v>3.7770897832817338</v>
       </c>
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>7</v>
       </c>
       <c r="B28">
         <f t="shared" si="16"/>
-        <v>3.5004383218534754</v>
+        <v>3.5015479876160986</v>
       </c>
       <c r="C28">
         <f t="shared" si="17"/>
-        <v>3.6098935504070129</v>
+        <v>3.6068111455108358</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="11"/>
-        <v>-6.2499998078739516</v>
+        <v>-6.2499976037343394</v>
       </c>
       <c r="E28" s="1" t="str">
         <f t="shared" si="12"/>
@@ -1657,34 +1661,34 @@
       </c>
       <c r="F28" s="1">
         <f t="shared" si="13"/>
-        <v>-6.2379234075789416</v>
+        <v>-6.2385913791946628</v>
       </c>
       <c r="G28" s="1">
         <f t="shared" si="14"/>
-        <v>3.3327489041953666</v>
+        <v>3.3312693498452011</v>
       </c>
       <c r="H28" s="1">
         <f t="shared" si="15"/>
-        <v>3.6098935504070129</v>
+        <v>3.6068111455108358</v>
       </c>
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>8</v>
       </c>
       <c r="B29">
         <f t="shared" si="16"/>
-        <v>3.4422041327489041</v>
+        <v>3.4365325077399378</v>
       </c>
       <c r="C29">
         <f t="shared" si="17"/>
-        <v>3.5004383218534754</v>
+        <v>3.5015479876160986</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="11"/>
-        <v>-6.2466596377286923</v>
+        <v>-6.2459718774262196</v>
       </c>
       <c r="E29" s="1" t="str">
         <f t="shared" si="12"/>
@@ -1692,34 +1696,34 @@
       </c>
       <c r="F29" s="1">
         <f t="shared" si="13"/>
-        <v>-6.2499998078739516</v>
+        <v>-6.2499976037343394</v>
       </c>
       <c r="G29" s="1">
         <f t="shared" si="14"/>
-        <v>3.4422041327489041</v>
+        <v>3.4365325077399378</v>
       </c>
       <c r="H29" s="1">
         <f t="shared" si="15"/>
-        <v>3.6098935504070129</v>
+        <v>3.6068111455108358</v>
       </c>
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>9</v>
       </c>
       <c r="B30">
         <f t="shared" si="16"/>
-        <v>3.5004383218534754</v>
+        <v>3.5015479876160986</v>
       </c>
       <c r="C30">
         <f t="shared" si="17"/>
-        <v>3.5516593613024421</v>
+        <v>3.5417956656346745</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="11"/>
-        <v>-6.2499998078739516</v>
+        <v>-6.2499976037343394</v>
       </c>
       <c r="E30" s="1" t="str">
         <f t="shared" si="12"/>
@@ -1727,34 +1731,34 @@
       </c>
       <c r="F30" s="1">
         <f t="shared" si="13"/>
-        <v>-6.2473313103898249</v>
+        <v>-6.2482531223341553</v>
       </c>
       <c r="G30" s="1">
         <f t="shared" si="14"/>
-        <v>3.4422041327489041</v>
+        <v>3.4365325077399378</v>
       </c>
       <c r="H30" s="1">
         <f t="shared" si="15"/>
-        <v>3.5516593613024421</v>
+        <v>3.5417956656346745</v>
       </c>
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>10</v>
       </c>
       <c r="B31">
         <f t="shared" si="16"/>
-        <v>3.4934251721978709</v>
+        <v>3.4767801857585137</v>
       </c>
       <c r="C31">
         <f t="shared" si="17"/>
-        <v>3.5004383218534754</v>
+        <v>3.5015479876160986</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="11"/>
-        <v>-6.249956771639372</v>
+        <v>-6.2494608402265897</v>
       </c>
       <c r="E31" s="1" t="str">
         <f t="shared" si="12"/>
@@ -1762,34 +1766,34 @@
       </c>
       <c r="F31" s="1">
         <f t="shared" si="13"/>
-        <v>-6.2499998078739516</v>
+        <v>-6.2499976037343394</v>
       </c>
       <c r="G31" s="1">
         <f t="shared" si="14"/>
-        <v>3.4934251721978709</v>
+        <v>3.4767801857585137</v>
       </c>
       <c r="H31" s="1">
         <f t="shared" si="15"/>
-        <v>3.5516593613024421</v>
+        <v>3.5417956656346745</v>
       </c>
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>11</v>
       </c>
       <c r="B32">
         <f t="shared" si="16"/>
-        <v>3.5004383218534754</v>
+        <v>3.5015479876160986</v>
       </c>
       <c r="C32">
         <f t="shared" si="17"/>
-        <v>3.5446462116468376</v>
+        <v>3.5170278637770895</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="11"/>
-        <v>-6.2499998078739516</v>
+        <v>-6.2499976037343394</v>
       </c>
       <c r="E32" s="1" t="str">
         <f t="shared" si="12"/>
@@ -1797,34 +1801,34 @@
       </c>
       <c r="F32" s="1">
         <f t="shared" si="13"/>
-        <v>-6.2480067157855839</v>
+        <v>-6.2497100518551907</v>
       </c>
       <c r="G32" s="1">
         <f t="shared" si="14"/>
-        <v>3.4934251721978709</v>
+        <v>3.4767801857585137</v>
       </c>
       <c r="H32" s="1">
         <f t="shared" si="15"/>
-        <v>3.5446462116468376</v>
+        <v>3.5170278637770895</v>
       </c>
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>12</v>
       </c>
       <c r="B33">
         <f t="shared" si="16"/>
-        <v>3.5376330619912335</v>
+        <v>3.4922600619195046</v>
       </c>
       <c r="C33">
         <f t="shared" si="17"/>
-        <v>3.5004383218534754</v>
+        <v>3.5015479876160986</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="11"/>
-        <v>-6.248583752645164</v>
+        <v>-6.249940093358509</v>
       </c>
       <c r="E33" s="1" t="str">
         <f t="shared" si="12"/>
@@ -1832,34 +1836,34 @@
       </c>
       <c r="F33" s="1">
         <f t="shared" si="13"/>
-        <v>-6.2499998078739516</v>
+        <v>-6.2499976037343394</v>
       </c>
       <c r="G33" s="1">
         <f t="shared" si="14"/>
-        <v>3.5376330619912335</v>
+        <v>3.4922600619195046</v>
       </c>
       <c r="H33" s="1">
         <f t="shared" si="15"/>
-        <v>3.5446462116468376</v>
+        <v>3.5170278637770895</v>
       </c>
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>13</v>
       </c>
       <c r="B34">
         <f t="shared" si="16"/>
-        <v>3.5004383218534754</v>
+        <v>3.5015479876160986</v>
       </c>
       <c r="C34">
         <f t="shared" si="17"/>
-        <v>3.5818409517845962</v>
+        <v>3.5077399380804954</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="11"/>
-        <v>-6.2499998078739516</v>
+        <v>-6.2499976037343394</v>
       </c>
       <c r="E34" s="1" t="str">
         <f t="shared" si="12"/>
@@ -1867,95 +1871,95 @@
       </c>
       <c r="F34" s="1">
         <f t="shared" si="13"/>
-        <v>-6.2433020586109915</v>
+        <v>-6.2499400933585108</v>
       </c>
       <c r="G34" s="1">
         <f t="shared" si="14"/>
-        <v>3.5376330619912335</v>
+        <v>3.4922600619195046</v>
       </c>
       <c r="H34" s="1">
         <f t="shared" si="15"/>
-        <v>3.5818409517845962</v>
+        <v>3.5077399380804954</v>
       </c>
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>14</v>
       </c>
       <c r="B35">
         <f t="shared" si="16"/>
-        <v>3.6190356919223547</v>
+        <v>3.4984520123839009</v>
       </c>
       <c r="C35">
         <f t="shared" si="17"/>
-        <v>3.5004383218534754</v>
+        <v>3.5015479876160986</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="11"/>
-        <v>-6.2358305040485646</v>
+        <v>-6.2499976037343412</v>
       </c>
       <c r="E35" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>&gt;</v>
+        <v>&lt;=</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" si="13"/>
-        <v>-6.2499998078739516</v>
+        <v>-6.2499976037343394</v>
       </c>
       <c r="G35" s="1">
         <f t="shared" si="14"/>
-        <v>3.6190356919223547</v>
+        <v>3.4922600619195046</v>
       </c>
       <c r="H35" s="1">
         <f t="shared" si="15"/>
-        <v>3.5818409517845962</v>
+        <v>3.5015479876160986</v>
       </c>
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>15</v>
       </c>
       <c r="B36">
         <f t="shared" si="16"/>
-        <v>3.5004383218534754</v>
+        <v>3.4953560371517027</v>
       </c>
       <c r="C36">
         <f t="shared" si="17"/>
-        <v>3.7004383218534755</v>
+        <v>3.4984520123839009</v>
       </c>
       <c r="D36" s="1">
         <f t="shared" si="11"/>
-        <v>-6.2499998078739516</v>
+        <v>-6.2499784336090656</v>
       </c>
       <c r="E36" s="1" t="str">
         <f t="shared" si="12"/>
-        <v>&lt;=</v>
+        <v>&gt;</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" si="13"/>
-        <v>-6.2098244791325623</v>
+        <v>-6.2499976037343412</v>
       </c>
       <c r="G36" s="1">
         <f t="shared" si="14"/>
-        <v>3.6190356919223547</v>
+        <v>3.4953560371517027</v>
       </c>
       <c r="H36" s="1">
         <f t="shared" si="15"/>
-        <v>3.7004383218534755</v>
+        <v>3.5015479876160986</v>
       </c>
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>14</v>
       </c>
@@ -2013,7 +2017,7 @@
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -2087,7 +2091,7 @@
       <c r="T39" s="6"/>
       <c r="U39" s="6"/>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>5</v>
       </c>
@@ -2132,7 +2136,7 @@
       </c>
       <c r="Q42" s="6"/>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>0</v>
       </c>
@@ -2177,7 +2181,7 @@
       <c r="P43" s="6"/>
       <c r="Q43" s="6"/>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>1</v>
       </c>
@@ -2212,7 +2216,7 @@
       <c r="P44" s="6"/>
       <c r="Q44" s="6"/>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>2</v>
       </c>
@@ -2247,7 +2251,7 @@
       <c r="P45" s="6"/>
       <c r="Q45" s="6"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>3</v>
       </c>
@@ -2282,7 +2286,7 @@
       <c r="P46" s="6"/>
       <c r="Q46" s="6"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>4</v>
       </c>
@@ -2317,7 +2321,7 @@
       <c r="P47" s="6"/>
       <c r="Q47" s="6"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>5</v>
       </c>
@@ -2352,7 +2356,7 @@
       <c r="P48" s="6"/>
       <c r="Q48" s="6"/>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>6</v>
       </c>
@@ -2387,7 +2391,7 @@
       <c r="P49" s="6"/>
       <c r="Q49" s="6"/>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>7</v>
       </c>
@@ -2422,7 +2426,7 @@
       <c r="P50" s="6"/>
       <c r="Q50" s="6"/>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>8</v>
       </c>
@@ -2457,7 +2461,7 @@
       <c r="P51" s="6"/>
       <c r="Q51" s="6"/>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>9</v>
       </c>
@@ -2492,7 +2496,7 @@
       <c r="P52" s="6"/>
       <c r="Q52" s="6"/>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>10</v>
       </c>
@@ -2527,7 +2531,7 @@
       <c r="P53" s="6"/>
       <c r="Q53" s="6"/>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>11</v>
       </c>
@@ -2562,7 +2566,7 @@
       <c r="P54" s="6"/>
       <c r="Q54" s="6"/>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>12</v>
       </c>
@@ -2597,7 +2601,7 @@
       <c r="P55" s="6"/>
       <c r="Q55" s="6"/>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>13</v>
       </c>
@@ -2632,7 +2636,7 @@
       <c r="P56" s="6"/>
       <c r="Q56" s="6"/>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>14</v>
       </c>
@@ -2667,7 +2671,7 @@
       <c r="P57" s="6"/>
       <c r="Q57" s="6"/>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>15</v>
       </c>
@@ -2719,16 +2723,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3130EC1-B8B8-4CAC-A18D-48ADB4BEC1AB}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="23.140625" customWidth="1"/>
+    <col min="10" max="10" width="23.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -2759,6 +2763,9 @@
       <c r="J1" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="L1" s="1" t="s">
         <v>48</v>
       </c>
@@ -2769,7 +2776,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2805,6 +2812,10 @@
         <f>G2+0.5*H2</f>
         <v>324.03703492039301</v>
       </c>
+      <c r="K2">
+        <f>C2*B2</f>
+        <v>3500</v>
+      </c>
       <c r="L2" s="1">
         <v>500</v>
       </c>
@@ -2817,7 +2828,7 @@
         <v>874.55530063360311</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2853,8 +2864,12 @@
         <f t="shared" ref="J3:J6" si="4">G3+0.5*H3</f>
         <v>89.442719099991592</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <f t="shared" ref="K3:K6" si="5">C3*B3</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2890,8 +2905,12 @@
         <f t="shared" si="4"/>
         <v>447.21359549995793</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K4">
+        <f t="shared" si="5"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2927,8 +2946,12 @@
         <f t="shared" si="4"/>
         <v>42.426406871192853</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K5">
+        <f t="shared" si="5"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2964,8 +2987,12 @@
         <f t="shared" si="4"/>
         <v>357.77087639996637</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>41</v>
       </c>
@@ -2996,6 +3023,9 @@
       <c r="J8" s="1" t="s">
         <v>49</v>
       </c>
+      <c r="K8" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="L8" s="1" t="s">
         <v>48</v>
       </c>
@@ -3006,7 +3036,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>1</v>
       </c>
@@ -3041,6 +3071,10 @@
         <f>G9+0.5*H9</f>
         <v>383.49364614020823</v>
       </c>
+      <c r="K9">
+        <f>C9*B9</f>
+        <v>3500</v>
+      </c>
       <c r="L9" s="1">
         <v>500</v>
       </c>
@@ -3053,7 +3087,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -3073,23 +3107,27 @@
         <v>12.587403132460974</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" ref="G10:G13" si="5">C10*B10/F10</f>
+        <f t="shared" ref="G10:G13" si="6">C10*B10/F10</f>
         <v>79.444504118657647</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" ref="H10:H13" si="6">D10*F10</f>
+        <f t="shared" ref="H10:H13" si="7">D10*F10</f>
         <v>50.349612529843895</v>
       </c>
       <c r="I10" s="1">
-        <f t="shared" ref="I10:I13" si="7">E10*F10</f>
+        <f t="shared" ref="I10:I13" si="8">E10*F10</f>
         <v>62.937015662304873</v>
       </c>
       <c r="J10">
-        <f t="shared" ref="J10:J13" si="8">G10+0.5*H10</f>
+        <f t="shared" ref="J10:J13" si="9">G10+0.5*H10</f>
         <v>104.6193103835796</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K10">
+        <f t="shared" ref="K10:K13" si="10">C10*B10</f>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -3109,23 +3147,27 @@
         <v>38.563046065184665</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>259.31561482712226</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>385.63046065184665</v>
       </c>
       <c r="I11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>77.126092130369329</v>
       </c>
       <c r="J11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>452.13084515304558</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K11">
+        <f t="shared" si="10"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -3145,23 +3187,27 @@
         <v>7.5480139276279035</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.618331963176495</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15.096027855255807</v>
       </c>
       <c r="I12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>60.384111421023228</v>
       </c>
       <c r="J12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>67.166345890804394</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K12">
+        <f t="shared" si="10"/>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>5</v>
       </c>
@@ -3181,20 +3227,24 @@
         <v>15.424757013655384</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>207.45869754493194</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>308.49514027310767</v>
       </c>
       <c r="I13" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>61.699028054621536</v>
       </c>
       <c r="J13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>361.70626768148577</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="10"/>
+        <v>3200</v>
       </c>
     </row>
   </sheetData>
